--- a/orders.xlsx
+++ b/orders.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="orders" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="orders" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" iterate="0" iterateCount="100" iterateDelta="0.001" refMode="A1"/>
@@ -468,12 +468,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="H8" activeCellId="0" pane="topLeft" sqref="H8"/>
@@ -611,9 +611,169 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="4" t="n">
+        <v>1470689869</v>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>Kirilkenig@gmail.com</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Кенигсберг Кирилл Ильич</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>+79651537853</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>Руза</t>
+        </is>
+      </c>
+      <c r="G4" s="4" t="inlineStr">
+        <is>
+          <t>27.07</t>
+        </is>
+      </c>
+      <c r="H4" s="4" t="inlineStr">
+        <is>
+          <t>В метро</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="n">
+        <v>1470689869</v>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>Kirilkenig@gmail.com</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>Кенигсберг Кирилл Ильич</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>+79651537853</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>Руза</t>
+        </is>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t>25.06</t>
+        </is>
+      </c>
+      <c r="H5" s="4" t="inlineStr">
+        <is>
+          <t>В метро</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="n">
+        <v>1470689869</v>
+      </c>
+      <c r="B6" s="4" t="inlineStr"/>
+      <c r="C6" s="4" t="inlineStr"/>
+      <c r="D6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="inlineStr"/>
+      <c r="G6" s="4" t="inlineStr">
+        <is>
+          <t>27.07</t>
+        </is>
+      </c>
+      <c r="H6" s="4" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="n">
+        <v>1470689869</v>
+      </c>
+      <c r="B7" s="4" t="inlineStr"/>
+      <c r="C7" s="4" t="inlineStr"/>
+      <c r="D7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4" t="inlineStr"/>
+      <c r="G7" s="4" t="inlineStr">
+        <is>
+          <t>25.06</t>
+        </is>
+      </c>
+      <c r="H7" s="4" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>413692764</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>pavel_rozanov@mail.ru</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Павел Розанов</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>+79263687736</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>25.06</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Тест</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="user@test.com" ref="B2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="user@test.com" ref="B2" r:id="rId1"/>
   </hyperlinks>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
